--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/events.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/events.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="148">
   <si>
     <t>date</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>09.03.2016, 19:45 Uhr</t>
-  </si>
-  <si>
-    <t>11.03.2016, 20:30 Uhr</t>
   </si>
   <si>
     <t>11.03.2016, 21:00 Uhr</t>
@@ -539,11 +536,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -719,22 +716,22 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -750,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -769,22 +766,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -800,7 +797,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -819,22 +816,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -845,10 +842,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
@@ -857,10 +854,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -871,22 +868,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -903,7 +900,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -927,19 +924,19 @@
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -956,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
@@ -976,22 +973,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1002,22 +999,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>1.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1033,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -1052,22 +1049,22 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1083,7 +1080,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
@@ -1102,22 +1099,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1133,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
@@ -1152,22 +1149,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1177,22 +1174,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1208,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -1228,22 +1225,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1259,7 +1256,7 @@
         <v>52</v>
       </c>
       <c r="C28" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
@@ -1279,22 +1276,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1310,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>23</v>
@@ -1330,22 +1327,22 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1362,7 +1359,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
@@ -1385,19 +1382,19 @@
         <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1414,7 +1411,7 @@
         <v>63</v>
       </c>
       <c r="C34" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -1434,22 +1431,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1466,7 +1463,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
@@ -1488,19 +1485,19 @@
         <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1517,7 +1514,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
@@ -1536,22 +1533,22 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1568,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>71</v>
@@ -1587,22 +1584,22 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1613,22 +1610,22 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1638,10 +1635,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1">
         <v>1.0</v>
@@ -1650,10 +1647,10 @@
         <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1670,7 +1667,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>18</v>
@@ -1689,22 +1686,22 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1">
         <v>2.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1715,22 +1712,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1746,7 +1743,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>18</v>
@@ -1766,22 +1763,22 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C48" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1797,7 +1794,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>23</v>
@@ -1816,22 +1813,22 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1847,7 +1844,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -1866,22 +1863,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1891,22 +1888,22 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -1916,22 +1913,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1947,7 +1944,7 @@
         <v>74</v>
       </c>
       <c r="C55" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>71</v>
@@ -1966,22 +1963,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1997,7 +1994,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -2019,19 +2016,19 @@
         <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2047,7 +2044,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>23</v>
@@ -2066,22 +2063,22 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2097,7 +2094,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -2119,19 +2116,19 @@
         <v>86</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2147,7 +2144,7 @@
         <v>49</v>
       </c>
       <c r="C63" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>71</v>
@@ -2166,22 +2163,22 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C64" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2191,22 +2188,22 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C65" s="1">
         <v>1.0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2222,7 +2219,7 @@
         <v>33</v>
       </c>
       <c r="C66" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>23</v>
@@ -2241,22 +2238,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1">
         <v>2.0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2266,22 +2263,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C68" s="1">
         <v>2.0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2291,22 +2288,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C69" s="1">
         <v>2.0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2316,22 +2313,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2341,22 +2338,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2368,22 +2365,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C72" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2396,19 +2393,19 @@
         <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C73" s="1">
         <v>1.0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2421,19 +2418,19 @@
         <v>94</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C74" s="1">
         <v>2.0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -2443,22 +2440,22 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C75" s="1">
         <v>1.0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -2468,22 +2465,22 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C76" s="1">
         <v>2.0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -2493,10 +2490,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C77" s="1">
         <v>1.0</v>
@@ -2505,10 +2502,10 @@
         <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -2518,10 +2515,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C78" s="1">
         <v>2.0</v>
@@ -2530,10 +2527,10 @@
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -2546,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C79" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2571,19 +2568,19 @@
         <v>96</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C80" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -2593,22 +2590,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C81" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2618,22 +2615,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C82" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -2643,22 +2640,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -2668,22 +2665,22 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1">
         <v>2.0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -2693,22 +2690,22 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2718,22 +2715,22 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -2743,22 +2740,22 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2771,19 +2768,19 @@
         <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C88" s="1">
         <v>1.0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2796,19 +2793,19 @@
         <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C89" s="1">
         <v>2.0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2818,22 +2815,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C90" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2843,22 +2840,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C91" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2868,22 +2865,22 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C92" s="1">
         <v>2.0</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2896,19 +2893,19 @@
         <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C93" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -2921,19 +2918,19 @@
         <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C94" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2943,22 +2940,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C95" s="1">
         <v>3.0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -2968,22 +2965,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C96" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -2993,22 +2990,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3024,7 +3021,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>71</v>
@@ -3050,7 +3047,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>71</v>
@@ -3072,22 +3069,22 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1">
         <v>3.0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -3098,22 +3095,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1">
         <v>4.0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -3124,22 +3121,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C102" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -3149,22 +3146,22 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C103" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -3175,22 +3172,22 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C104" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -3200,22 +3197,22 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -3226,22 +3223,22 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C106" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -3251,22 +3248,22 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1">
         <v>3.0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -3278,22 +3275,22 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C108" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -3304,22 +3301,22 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C109" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -3329,22 +3326,22 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C110" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -3355,22 +3352,22 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C111" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -3380,22 +3377,22 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C112" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -3406,22 +3403,22 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C113" s="1">
         <v>3.0</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -3432,22 +3429,22 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C114" s="1">
         <v>4.0</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -3460,19 +3457,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C115" s="1">
         <v>3.0</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3486,19 +3483,19 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C116" s="1">
         <v>4.0</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -3508,22 +3505,22 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C117" s="1">
         <v>3.0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3534,22 +3531,22 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C118" s="1">
         <v>4.0</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -3562,19 +3559,19 @@
         <v>115</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C119" s="7">
         <v>3.0</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -3589,19 +3586,19 @@
         <v>115</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C120" s="7">
         <v>4.0</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -3611,22 +3608,22 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C121" s="1">
         <v>3.0</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -3636,22 +3633,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C122" s="1">
         <v>4.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -3662,22 +3659,22 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1">
         <v>3.0</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -3688,22 +3685,22 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C124" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -3715,22 +3712,22 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C125" s="1">
         <v>3.0</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -3741,22 +3738,22 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C126" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -3767,22 +3764,22 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C127" s="7">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -3792,22 +3789,22 @@
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C128" s="7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -3817,22 +3814,22 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C129" s="1">
         <v>4.0</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -3843,22 +3840,22 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C130" s="1">
         <v>3.0</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -3868,22 +3865,22 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C131" s="1">
         <v>4.0</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -3893,22 +3890,22 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C132" s="1">
         <v>3.0</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -3918,22 +3915,22 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C133" s="1">
         <v>4.0</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -3943,22 +3940,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C134" s="1">
         <v>3.0</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -3968,22 +3965,22 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C135" s="1">
         <v>4.0</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -3993,22 +3990,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C136" s="1">
         <v>3.0</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -4018,22 +4015,22 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C137" s="1">
         <v>4.0</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -4043,22 +4040,22 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C138" s="1">
         <v>3.0</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -4068,22 +4065,22 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C139" s="1">
         <v>4.0</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -4093,22 +4090,22 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C140" s="1">
         <v>3.0</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -4119,22 +4116,22 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C141" s="1">
         <v>4.0</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -4148,19 +4145,19 @@
         <v>128</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -4173,19 +4170,19 @@
         <v>128</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C143" s="1">
         <v>4.0</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -4196,22 +4193,22 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C144" s="1">
         <v>3.0</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -4222,22 +4219,22 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C145" s="1">
         <v>4.0</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -4250,19 +4247,19 @@
         <v>129</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C146" s="1">
         <v>3.0</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -4276,19 +4273,19 @@
         <v>129</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C147" s="1">
         <v>4.0</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -4298,22 +4295,22 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C148" s="1">
         <v>3.0</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -4323,22 +4320,22 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C149" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -4349,22 +4346,22 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C150" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -4374,22 +4371,22 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C151" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -4400,22 +4397,22 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C152" s="1">
         <v>4.0</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -4425,22 +4422,22 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C153" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -4451,22 +4448,22 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C154" s="1">
         <v>4.0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -4477,7 +4474,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>93</v>
@@ -4502,7 +4499,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>93</v>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>17</v>
@@ -4552,7 +4549,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>17</v>
@@ -4577,7 +4574,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>67</v>
@@ -4602,7 +4599,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>67</v>
@@ -4627,7 +4624,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>44</v>
@@ -4652,7 +4649,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>44</v>
@@ -4677,7 +4674,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>62</v>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>62</v>
@@ -4729,7 +4726,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>72</v>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>72</v>
@@ -4779,7 +4776,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>28</v>
@@ -4804,7 +4801,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>65</v>
@@ -4830,7 +4827,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>77</v>
@@ -4856,7 +4853,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>77</v>
@@ -4882,7 +4879,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>56</v>
@@ -4907,7 +4904,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>56</v>
@@ -4933,7 +4930,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>31</v>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>31</v>
@@ -4984,7 +4981,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>58</v>
@@ -5010,7 +5007,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>58</v>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>19</v>
@@ -5060,7 +5057,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>19</v>
@@ -5085,7 +5082,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>15</v>
@@ -5110,7 +5107,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>15</v>
@@ -5135,7 +5132,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>46</v>
@@ -5160,7 +5157,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>46</v>
@@ -5186,7 +5183,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>69</v>
@@ -5211,7 +5208,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>69</v>
@@ -5236,7 +5233,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>64</v>
